--- a/biology/Médecine/William_Weightman/William_Weightman.xlsx
+++ b/biology/Médecine/William_Weightman/William_Weightman.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">William Weightman (30 septembre 1813 - 25 août 1904) est un fabricant de produits chimiques américain qui fut l'un des plus grands propriétaires terriens des États-Unis à son époque[1].
-Né en Angleterre et arrivé aux États-Unis à 16 ans, il rejoint l'entreprise chimique de son oncle où il devient progressivement associé. En 1861, lorsque la guerre de sécession éclate, l'importation de quinine britannique est empêchée alors que cette molécule sert à prévenir la malaria. Ayant développé une méthode de synthèse pour en fabriquer aux États-Unis[1], Weightman et son associé Powers bénéficient d'un quasi-monopole et amassent une fortune considérable. Il gagne le surnom de « roi de la quinine[2] » et investit massivement dans l'immobilier, achète de larges terres agricoles et fait construire des quartiers entiers à Philadelphie.
-En 1998, il est listé comme le 17e Américain le plus riche de l'histoire par le magazine American Heritage (en), et sa fortune est plus tard estimée à 51,8 milliards $ en valeur ajustée de 2014[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">William Weightman (30 septembre 1813 - 25 août 1904) est un fabricant de produits chimiques américain qui fut l'un des plus grands propriétaires terriens des États-Unis à son époque.
+Né en Angleterre et arrivé aux États-Unis à 16 ans, il rejoint l'entreprise chimique de son oncle où il devient progressivement associé. En 1861, lorsque la guerre de sécession éclate, l'importation de quinine britannique est empêchée alors que cette molécule sert à prévenir la malaria. Ayant développé une méthode de synthèse pour en fabriquer aux États-Unis, Weightman et son associé Powers bénéficient d'un quasi-monopole et amassent une fortune considérable. Il gagne le surnom de « roi de la quinine » et investit massivement dans l'immobilier, achète de larges terres agricoles et fait construire des quartiers entiers à Philadelphie.
+En 1998, il est listé comme le 17e Américain le plus riche de l'histoire par le magazine American Heritage (en), et sa fortune est plus tard estimée à 51,8 milliards $ en valeur ajustée de 2014.
 </t>
         </is>
       </c>
@@ -513,18 +525,16 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Né à Waltham en Angleterre, il émigre en Amérique à 16 ans en 1829 sur invitation de son oncle John Farr, chimiste de profession. Celui-ci avait fondé la société Farr &amp; Kunzi, qui est la première à fabriquer du sulfate de quinine aux États-Unis. À la retraite de Kunzi en 1836, Farr s'associe à Thomas Powers et à Weightman, 27 ans, pour fonder Farr, Powers &amp; Weightman[1].
-Lorsque John Farr meurt en 1847, Weightman devient administrateur et dirigeant de l'entreprise, qui est rebaptisée Powers &amp; Weightman[4]. L'entreprise développe une forme synthétique de quinine, une prophylaxie à la malaria. L'importation de quinine britannique étant interrompue pendant la guerre de sécession, l'entreprise profite grandement d'un quasi-monopole[1]. En 1875, Powers &amp; Weightman se voit décerner la médaille Elliott Cresson par le Franklin Institute[5].
-Weightman amasse une grande fortune grâce à des investissements judicieux, provenant de son entreprise de fabrication. Au tournant du 20e siècle, il est le « plus grand propriétaire individuel de biens immobiliers à Philadelphie[6] », ayant acheté des centaines d'hectares de fermes et construit des quartiers entiers de logements pour la classe moyenne. Son architecte pour ceux-ci est Willis G. Hale (en), le mari d'une de ses nièces[7] qui a également dessiné le Garrick Theatre (en) pour Weightman qui ouvre en 1901.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Né à Waltham en Angleterre, il émigre en Amérique à 16 ans en 1829 sur invitation de son oncle John Farr, chimiste de profession. Celui-ci avait fondé la société Farr &amp; Kunzi, qui est la première à fabriquer du sulfate de quinine aux États-Unis. À la retraite de Kunzi en 1836, Farr s'associe à Thomas Powers et à Weightman, 27 ans, pour fonder Farr, Powers &amp; Weightman.
+Lorsque John Farr meurt en 1847, Weightman devient administrateur et dirigeant de l'entreprise, qui est rebaptisée Powers &amp; Weightman. L'entreprise développe une forme synthétique de quinine, une prophylaxie à la malaria. L'importation de quinine britannique étant interrompue pendant la guerre de sécession, l'entreprise profite grandement d'un quasi-monopole. En 1875, Powers &amp; Weightman se voit décerner la médaille Elliott Cresson par le Franklin Institute.
+Weightman amasse une grande fortune grâce à des investissements judicieux, provenant de son entreprise de fabrication. Au tournant du 20e siècle, il est le « plus grand propriétaire individuel de biens immobiliers à Philadelphie », ayant acheté des centaines d'hectares de fermes et construit des quartiers entiers de logements pour la classe moyenne. Son architecte pour ceux-ci est Willis G. Hale (en), le mari d'une de ses nièces qui a également dessiné le Garrick Theatre (en) pour Weightman qui ouvre en 1901.
 Hale a également conçu la maison de campagne de Weightman, Ravenhill (en) (1887), construite dans le style West Germantown de Philadelphie, sur une crête surplombant la Wissahickon Creek (en).
-Ayant survécu à ses deux fils médecins, Farr et William, Weightman en vint à compter sur sa fille, Anne Weightman Walker (en). Après la mort du mari de cette-dernière en 1903, elle est admise comme associée chez Powers &amp; Weightman, devenant la « seule femme aux États-Unis à occuper un tel poste à responsabilité[4] ».
+Ayant survécu à ses deux fils médecins, Farr et William, Weightman en vint à compter sur sa fille, Anne Weightman Walker (en). Après la mort du mari de cette-dernière en 1903, elle est admise comme associée chez Powers &amp; Weightman, devenant la « seule femme aux États-Unis à occuper un tel poste à responsabilité ».
 Sa société, Powers &amp; Weightman, fusionnera dans les années 1920 avec le géant pharmaceutique Merck &amp; Co..
-Vie privée
-Weightman se marie avec Louisa Stillwagon en 1841 avec qui il a trois enfants : John, William Jr. et Anne.
-Il meurt à 90 ans le 25 août 1904 dans son manoir de Ravenhill[1]. Il laisse la majeure partie de sa succession à son seul enfant survivant, Anne, et est enterré au cimetière de Laurel Hill (en) à Philadelphie.
-Anne Weightman Walker hérite du manoir Ravenhill et fait don du domaine à l'archidiocèse de Philadelphie en 1910. Le cardinal Dennis Dougherty accorde le manoir à l'ordre des Religieuses de l'Assomption en 1919. Les sœurs le convertissent en école qu'elles nomment Ravenhill Academy.
 </t>
         </is>
       </c>
@@ -550,10 +560,51 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Vie privée</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Weightman se marie avec Louisa Stillwagon en 1841 avec qui il a trois enfants : John, William Jr. et Anne.
+Il meurt à 90 ans le 25 août 1904 dans son manoir de Ravenhill. Il laisse la majeure partie de sa succession à son seul enfant survivant, Anne, et est enterré au cimetière de Laurel Hill (en) à Philadelphie.
+Anne Weightman Walker hérite du manoir Ravenhill et fait don du domaine à l'archidiocèse de Philadelphie en 1910. Le cardinal Dennis Dougherty accorde le manoir à l'ordre des Religieuses de l'Assomption en 1919. Les sœurs le convertissent en école qu'elles nomment Ravenhill Academy.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>William_Weightman</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/William_Weightman</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Postérité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Un portrait posthume de William Weightman est commandé par sa fille Anne Weightman à l'artiste américain d'origine suisse Adolfo Müller-Ury (en). Il est exposé à la Corcoran Gallery of Art de Washington et à Philadelphie en 1908.
 Le gymnase Weightman de l'université de Pennsylvanie (1903–05, Frank Miles Day (en), architecte), adjacent au stade Franklin Field, porte son nom.
